--- a/Bicycle/21_speed_bicycle.xlsx
+++ b/Bicycle/21_speed_bicycle.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smzq1\code\vs-products\Bicycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8330D87-B267-4AA9-8938-ECE6846E26F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAC923-DC4C-4171-8BCF-D489D56AD66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="21速对比" sheetId="1" r:id="rId1"/>
+    <sheet name="21速度对比" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -595,36 +595,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,688 +945,687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31F2438-92FB-6046-A14E-0C9E95906615}">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C6C1DF-641A-4C21-AE7F-7806D0777912}">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2">
+        <v>790</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="2">
+        <v>939</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="2">
+        <v>985</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" s="2">
+        <v>1198</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B10" s="2">
+        <v>1298</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B12" s="2">
+        <v>1349</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="B13" s="2">
+        <v>1398</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B14" s="2">
+        <v>1598</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B15" s="2">
+        <v>1836</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="G15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="I15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="J15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="L15" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="N15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>790</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14">
-        <v>939</v>
-      </c>
-      <c r="F14">
-        <v>985</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14">
-        <v>1198</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14">
-        <v>1298</v>
-      </c>
-      <c r="K14">
-        <v>1300</v>
-      </c>
-      <c r="L14">
-        <v>1349</v>
-      </c>
-      <c r="M14">
-        <v>1398</v>
-      </c>
-      <c r="N14">
-        <v>1598</v>
-      </c>
-      <c r="O14">
-        <v>1836</v>
       </c>
     </row>
   </sheetData>

--- a/Bicycle/21_speed_bicycle.xlsx
+++ b/Bicycle/21_speed_bicycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smzq1\code\vs-products\Bicycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAC923-DC4C-4171-8BCF-D489D56AD66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4C474-9C54-4ECB-87DD-15DE07EFC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="108">
   <si>
     <t>型号</t>
   </si>
@@ -247,17 +247,10 @@
     <t>铝合金</t>
   </si>
   <si>
-    <t>SHIMANO Altus</t>
-  </si>
-  <si>
     <t>Shimano TY</t>
   </si>
   <si>
     <t>捷安特ATX660</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知 26寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -455,12 +448,52 @@
     <t>车架保修10年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1098~1198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳26/27.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shimano TY600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃雷顿MT500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIMANO Altus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMP征途100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shimano TY200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.5KG(不含脚踏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +605,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -595,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +677,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,26 +999,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C6C1DF-641A-4C21-AE7F-7806D0777912}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -976,216 +1029,216 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2">
         <v>790</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
         <v>939</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1195,437 +1248,525 @@
       <c r="B6" s="2">
         <v>985</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1198</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
+      <c r="G8" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>76</v>
+      <c r="K8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1198</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2">
-        <v>1298</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>32</v>
+      <c r="K10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>93</v>
+        <v>26</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2">
-        <v>1349</v>
+        <v>1298</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2">
-        <v>1398</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>42</v>
+      <c r="I13" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1349</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1598</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>36</v>
+      <c r="K14" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2">
-        <v>1836</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1598</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="M16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1836</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Bicycle/21_speed_bicycle.xlsx
+++ b/Bicycle/21_speed_bicycle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smzq1\code\vs-products\Bicycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4C474-9C54-4ECB-87DD-15DE07EFC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6147700F-0BD4-49DE-9113-6D56E5848B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>Microshift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车架前叉终身保修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,6 +482,10 @@
   </si>
   <si>
     <t>朝阳26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车架把立终身保修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
         <v>790</v>
@@ -1076,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2">
         <v>939</v>
@@ -1208,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -1252,7 +1252,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>46</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
@@ -1367,15 +1367,15 @@
         <v>36</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2">
         <v>1198</v>
@@ -1393,13 +1393,13 @@
         <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>42</v>
@@ -1411,15 +1411,15 @@
         <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2">
         <v>1198</v>
@@ -1437,13 +1437,13 @@
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>42</v>
@@ -1455,18 +1455,18 @@
         <v>23</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2">
         <v>1298</v>
@@ -1525,13 +1525,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>42</v>
@@ -1543,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>34</v>
@@ -1551,13 +1551,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2">
         <v>1300</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>52</v>
@@ -1566,13 +1566,13 @@
         <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>47</v>
@@ -1587,10 +1587,10 @@
         <v>23</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>1349</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>57</v>
@@ -1622,10 +1622,10 @@
         <v>60</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>23</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2">
         <v>1398</v>
@@ -1657,13 +1657,13 @@
         <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>42</v>
@@ -1678,18 +1678,18 @@
         <v>35</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2">
         <v>1598</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>52</v>
@@ -1701,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>47</v>
@@ -1722,7 +1722,7 @@
         <v>45</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>54</v>
@@ -1763,7 +1763,7 @@
         <v>36</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>34</v>
